--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A8072F92-3412-4354-A7B6-424AB6F14A0B/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/758AC13A-86B5-4BE0-BF45-D7AD04C0B450/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50817E55-A580-164F-A93D-30CC070E9AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B67AB-BE5D-E349-A209-ED28028E208E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -342,12 +342,6 @@
     <t>[Highly Genotype- and Tissue-specific Single-Parent Expression Drives Dynamic Gene Expression Complementation in Maize Hybrids](http://dx.doi.org/10.1101/668681)</t>
   </si>
   <si>
-    <t>Impact Factor = 8.631</t>
-  </si>
-  <si>
-    <t>Impact Factor = 10.812</t>
-  </si>
-  <si>
     <t>Crisp PA, Hammond R, **Zhou P**, Vaillancourt B, Lipzen A, Daum C, et al</t>
   </si>
   <si>
@@ -478,6 +472,12 @@
   </si>
   <si>
     <t>Crop Science</t>
+  </si>
+  <si>
+    <t>Impact Factor = 12.084</t>
+  </si>
+  <si>
+    <t>Impact Factor = 9.618</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1141,7 +1141,7 @@
         <v>2020</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1158,10 +1158,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1173,7 +1173,7 @@
         <v>2020</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1190,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
         <v>78</v>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         <v>2020</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1301,7 +1301,7 @@
         <v>2019</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1318,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1333,7 +1333,7 @@
         <v>2019</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>83</v>
@@ -1382,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1429,7 +1429,7 @@
         <v>2017</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1446,10 +1446,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1461,7 +1461,7 @@
         <v>2017</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1478,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1493,7 +1493,7 @@
         <v>2011</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1510,10 +1510,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>2011</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         <v>2016</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1574,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1589,7 +1589,7 @@
         <v>2013</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1909,57 +1909,57 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/758AC13A-86B5-4BE0-BF45-D7AD04C0B450/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/AABF34FD-D5CA-4FD4-B998-C2CE1D8288FF/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B67AB-BE5D-E349-A209-ED28028E208E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3DC39-C42A-194B-802E-645D2D755C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="15400" yWindow="11800" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>&lt;font color="#cc5500"&gt;&lt;i class="fa fa-trophy"&gt;&lt;/i&gt;&lt;/font&gt; ESI Highly Cited Paper</t>
   </si>
   <si>
-    <t>[Putative cobalt- and nickel-binding proteins and motifs in *Streptococcus pneumonia*](http://pubs.rsc.org/en/content/articlelanding/2013/mt/c3mt00126a)</t>
-  </si>
-  <si>
     <t>presentation</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Impact Factor = 9.618</t>
+  </si>
+  <si>
+    <t>[Exploring structural variants in environmentally sensitive gene families](https://doi.org/10.1016/j.pbi.2015.12.012)</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -917,10 +917,10 @@
         <v>2015</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -934,13 +934,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -949,10 +949,10 @@
         <v>2009</v>
       </c>
       <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -966,13 +966,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -998,13 +998,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>2016</v>
@@ -1013,10 +1013,10 @@
         <v>9999</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>2015</v>
@@ -1045,7 +1045,7 @@
         <v>2016</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1062,13 +1062,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -1077,7 +1077,7 @@
         <v>2015</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1094,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2011</v>
@@ -1109,7 +1109,7 @@
         <v>2012</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1126,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1141,7 +1141,7 @@
         <v>2020</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1158,10 +1158,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1173,7 +1173,7 @@
         <v>2020</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1190,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1222,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1237,13 +1237,13 @@
         <v>2020</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         <v>2020</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1301,7 +1301,7 @@
         <v>2019</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1318,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1333,7 +1333,7 @@
         <v>2019</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1350,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>2019</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1382,10 +1382,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1397,13 +1397,13 @@
         <v>2019</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1429,7 +1429,7 @@
         <v>2017</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1446,10 +1446,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1461,7 +1461,7 @@
         <v>2017</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1478,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1493,7 +1493,7 @@
         <v>2011</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1510,10 +1510,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>2011</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         <v>2016</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1574,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1589,7 +1589,7 @@
         <v>2013</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
       </c>
       <c r="F24">
         <v>2020</v>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>2018</v>
@@ -1669,19 +1669,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>2014</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>2013</v>
@@ -1715,19 +1715,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
       </c>
       <c r="F29">
         <v>2011</v>
@@ -1738,19 +1738,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>2011</v>
@@ -1761,19 +1761,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>2010</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1825,10 +1825,10 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>2019</v>
@@ -1848,19 +1848,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>2016</v>
@@ -1880,16 +1880,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>2016</v>
@@ -1909,57 +1909,57 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
         <v>122</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1977,15 +1977,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>4.5</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3.5</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>3.5</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>3</v>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/AABF34FD-D5CA-4FD4-B998-C2CE1D8288FF/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3DC39-C42A-194B-802E-645D2D755C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAAC4E-403A-8B48-AB1C-998BE2DEC9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="11800" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
-    <sheet name="language_skills" sheetId="2" r:id="rId2"/>
+    <sheet name="positionsC" sheetId="3" r:id="rId2"/>
+    <sheet name="language_skills" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="175">
   <si>
     <t>loc</t>
   </si>
@@ -333,12 +334,6 @@
     <t>[Dynamic Patterns of Gene Expression Additivity and Regulatory Variation throughout Maize Development](http://dx.doi.org/10.1016/j.molp.2018.12.015)</t>
   </si>
   <si>
-    <t>Li Z, **Zhou P**, Della Coletta R, Zhang T, Brohammer AB, Vaillancourt B, et al</t>
-  </si>
-  <si>
-    <t>[Highly Genotype- and Tissue-specific Single-Parent Expression Drives Dynamic Gene Expression Complementation in Maize Hybrids](http://dx.doi.org/10.1101/668681)</t>
-  </si>
-  <si>
     <t>Crisp PA, Hammond R, **Zhou P**, Vaillancourt B, Lipzen A, Daum C, et al</t>
   </si>
   <si>
@@ -396,15 +391,9 @@
     <t>__*Curr Opin Plant Biol*__. 2016, 30: 19–24.</t>
   </si>
   <si>
-    <t>__*Proc Natl Acad Sci U S A*__. 2011, 108: E864-70.</t>
-  </si>
-  <si>
     <t>__*Plant Physiol*__. 2020, 182: 318-331.</t>
   </si>
   <si>
-    <t>__*bioRxiv*__. 2019,. p. 668681.</t>
-  </si>
-  <si>
     <t>__*Plant Cell*__. 2020, 32: 1377-1396.</t>
   </si>
   <si>
@@ -435,21 +424,6 @@
     <t>Noshay JM, Marand AP, Anderson SN, **Zhou P**, Guerra MKM, Lu Z, et al</t>
   </si>
   <si>
-    <t>[Cis-regulatory elements within TEs can influence expression of nearby maize genes](http://dx.doi.org/10.1101/2020.05.20.107169)</t>
-  </si>
-  <si>
-    <t>__*bioRxiv*__. 2020. p. 2020.05.20.107169.</t>
-  </si>
-  <si>
-    <t>[Stable unmethylated DNA demarcates expressed genes and their cis-regulatory space in plant genomes](https://www.biorxiv.org/content/10.1101/2020.05.21.109744v2.abstract)</t>
-  </si>
-  <si>
-    <t>__*bioRxiv*__. 2020. p. 2020.05.21.109744</t>
-  </si>
-  <si>
-    <t>Crisp PA, Marand AA, Noshay JM, **Zhou P**, Lu Z, Schmitz RJ, et al</t>
-  </si>
-  <si>
     <t>Young ND, Debellé F, Oldroyd GED, … , **Zhou P**, …, et al</t>
   </si>
   <si>
@@ -478,13 +452,175 @@
   </si>
   <si>
     <t>[Exploring structural variants in environmentally sensitive gene families](https://doi.org/10.1016/j.pbi.2015.12.012)</t>
+  </si>
+  <si>
+    <t>Li Z, **Zhou P**, Della Coletta R, Zhang T, Brohammer AB, H O’Connor C, et al.</t>
+  </si>
+  <si>
+    <t>[Single-parent expression drives dynamic gene expression complementation in maize hybrids](http://dx.doi.org/10.1101/668681)</t>
+  </si>
+  <si>
+    <t>__*Plant Journal*__. 2021, 105: 93–107.</t>
+  </si>
+  <si>
+    <t>__*Proc Natl Acad Sci U S A.*__. 2020, 117: 23991–24000.</t>
+  </si>
+  <si>
+    <t>Crisp PA, Marand AP, Noshay JM, **Zhou P**, Lu Z, Schmitz RJ, et al.</t>
+  </si>
+  <si>
+    <t>**Zhou P**, Enders TA, Myers ZA, Magnusson E, Crisp PA, Noshay J, et al.</t>
+  </si>
+  <si>
+    <t>[Applying cis-regulatory codes to predict conserved and variable heat and cold stress response in maize](http://dx.doi.org/10.1101/2021.01.15.426829)</t>
+  </si>
+  <si>
+    <t>__*bioRxiv*__. 2021. p. 2021.01.15.426829.</t>
+  </si>
+  <si>
+    <t>[Stable unmethylated DNA demarcates expressed genes and their cis-regulatory space in plant genomes](http://dx.doi.org/10.1073/pnas.2010250117)</t>
+  </si>
+  <si>
+    <t>academic_articles0</t>
+  </si>
+  <si>
+    <t>[Assessing the regulatory potential of transposable elements using chromatin accessibility profiles of maize transposons](http://dx.doi.org/10.1093/genetics/iyaa003)</t>
+  </si>
+  <si>
+    <t>__*Genetics*__. 2021, 217: 1–13.</t>
+  </si>
+  <si>
+    <t>__*New Phytologist*__. 2021, 229: 3330–3344.</t>
+  </si>
+  <si>
+    <t>Wang C, Ji W, Liu Y, **Zhou P**, Meng Y, Zhang P, et al.</t>
+  </si>
+  <si>
+    <t>[The antagonistic MYB paralogs RH1 and RH2 govern anthocyanin leaf markings in Medicago truncatula](http://dx.doi.org/10.1111/nph.17097)</t>
+  </si>
+  <si>
+    <t>__*BMC Bioinformatics*__. 2017, 18: 367.</t>
+  </si>
+  <si>
+    <t>[ODG: Omics database generator - a tool for generating, querying, and analyzing multi-omics comparative databases to facilitate biological understanding](http://dx.doi.org/10.1186/s12859-017-1777-7)</t>
+  </si>
+  <si>
+    <t>Guhlin J, Silverstein KAT, **Zhou P**, Tiffin P, Young ND</t>
+  </si>
+  <si>
+    <t>__*BMC Genomics*__. 2017, 18: 541.</t>
+  </si>
+  <si>
+    <t>[Hybrid assembly with long and short reads improves discovery of gene family expansions](http://dx.doi.org/10.1186/s12864-017-3927-8)</t>
+  </si>
+  <si>
+    <t>Miller JR, **Zhou P**, Mudge J, Gurtowski J, Lee H, Ramaraj T, et al</t>
+  </si>
+  <si>
+    <t>__*Molecular Ecology*__. 2011, 108: E864-70.</t>
+  </si>
+  <si>
+    <t>__*Proc Natl Acad Sci U S A*__. 2013, 22: 3525–3538.</t>
+  </si>
+  <si>
+    <t>Paape T, Bataillon T, **Zhou P**, J Y Kono T, Briskine R, Young ND, et al</t>
+  </si>
+  <si>
+    <t>[Selection, genome-wide fitness effects and evolutionary rates in the model legume Medicago truncatula](http://dx.doi.org/10.1111/mec.12329)</t>
+  </si>
+  <si>
+    <t>Paape T, **Zhou P**, Branca A, Briskine R, Young N, Tiffin P</t>
+  </si>
+  <si>
+    <t>__*Genome Biol Evol*__. 2012, 4: 726–737.</t>
+  </si>
+  <si>
+    <t>[Fine-scale population recombination rates, hotspots, and correlates of recombination in the Medicago truncatula genome)](http://dx.doi.org/10.1093/gbe/evs046)</t>
+  </si>
+  <si>
+    <t>Yoder JB, Stanton-Geddes J, **Zhou P**, Briskine R, Young ND, Tiffin P</t>
+  </si>
+  <si>
+    <t>__*Genetics*__. 2014, 196: 1263–1275.</t>
+  </si>
+  <si>
+    <t>[Genomic signature of adaptation to climate in Medicago truncatula](http://dx.doi.org/10.1534/genetics.113.159319)</t>
+  </si>
+  <si>
+    <t>明尼苏达大学双城分校</t>
+  </si>
+  <si>
+    <t>圣保罗，美国</t>
+  </si>
+  <si>
+    <t>导师：Nevin D Young</t>
+  </si>
+  <si>
+    <t>导师：李生斌</t>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+  </si>
+  <si>
+    <t>中国，西安</t>
+  </si>
+  <si>
+    <t>博士：植物病理学&amp;生物信息学</t>
+  </si>
+  <si>
+    <t>硕士：法医遗传学</t>
+  </si>
+  <si>
+    <t>学士：生物工程&amp;计算机科学</t>
+  </si>
+  <si>
+    <t>博士后</t>
+  </si>
+  <si>
+    <t>农业信息分析师</t>
+  </si>
+  <si>
+    <t>研究助理</t>
+  </si>
+  <si>
+    <t>植物病理系</t>
+  </si>
+  <si>
+    <t>应用经济系</t>
+  </si>
+  <si>
+    <t>植物与微生物学系</t>
+  </si>
+  <si>
+    <t>圣地亚哥</t>
+  </si>
+  <si>
+    <t>圣路易斯</t>
+  </si>
+  <si>
+    <t>明尼阿波利斯</t>
+  </si>
+  <si>
+    <t>中国农业大学，北京</t>
+  </si>
+  <si>
+    <t>华中农业大学，武汉</t>
+  </si>
+  <si>
+    <t>中国农业科学院，北京</t>
+  </si>
+  <si>
+    <t>导师：Nathan M Springer</t>
+  </si>
+  <si>
+    <t>明尼苏达超级计算中心</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -504,6 +640,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -526,8 +669,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,28 +1264,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1152,16 +1296,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1173,103 +1317,103 @@
         <v>2020</v>
       </c>
       <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>119</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G12">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G13">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1286,22 +1430,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1318,22 +1462,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1350,22 +1494,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G16">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1382,28 +1526,28 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,22 +1558,22 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G18">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1446,22 +1590,22 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G19">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1478,22 +1622,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="G20">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1510,28 +1654,28 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="G21">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1542,22 +1686,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1574,22 +1718,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G23">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1600,134 +1744,179 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G24">
-        <v>2020</v>
+        <v>2016</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="G25">
-        <v>2019</v>
+        <v>2014</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="G26">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G27">
-        <v>2014</v>
+        <v>2013</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G28">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>2011</v>
@@ -1735,28 +1924,46 @@
       <c r="G29">
         <v>2011</v>
       </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>2011</v>
       </c>
       <c r="G30">
         <v>2011</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1767,36 +1974,36 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
       </c>
       <c r="F31">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="G31">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1804,162 +2011,323 @@
       <c r="G32">
         <v>2019</v>
       </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F33">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G33">
-        <v>2019</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" t="s">
-        <v>10</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F34">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G34">
-        <v>2016</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F35">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="G35">
-        <v>2016</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
-        <v>10</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36">
+        <v>2011</v>
+      </c>
+      <c r="G36">
+        <v>2011</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>2011</v>
+      </c>
+      <c r="G37">
+        <v>2011</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>2010</v>
+      </c>
+      <c r="G38">
+        <v>2010</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>2019</v>
+      </c>
+      <c r="G39">
+        <v>2019</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41">
+        <v>2016</v>
+      </c>
+      <c r="G41">
+        <v>2016</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>2016</v>
+      </c>
+      <c r="G42">
+        <v>2016</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1968,6 +2336,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2">
+        <v>2009</v>
+      </c>
+      <c r="G2">
+        <v>2015</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3">
+        <v>2007</v>
+      </c>
+      <c r="G3">
+        <v>2009</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4">
+        <v>2003</v>
+      </c>
+      <c r="G4">
+        <v>2007</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5">
+        <v>2016</v>
+      </c>
+      <c r="G5">
+        <v>9999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6">
+        <v>2015</v>
+      </c>
+      <c r="G6">
+        <v>2016</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7">
+        <v>2009</v>
+      </c>
+      <c r="G7">
+        <v>2015</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8">
+        <v>2011</v>
+      </c>
+      <c r="G8">
+        <v>2012</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+      <c r="G9">
+        <v>2021</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2019</v>
+      </c>
+      <c r="G11">
+        <v>2019</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2017</v>
+      </c>
+      <c r="G12">
+        <v>2017</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2017</v>
+      </c>
+      <c r="G13">
+        <v>2017</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2020</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>2021</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>2021</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2020</v>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>2020</v>
+      </c>
+      <c r="G19">
+        <v>2020</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2019</v>
+      </c>
+      <c r="G20">
+        <v>2019</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>2019</v>
+      </c>
+      <c r="G21">
+        <v>2019</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>2017</v>
+      </c>
+      <c r="G22">
+        <v>2017</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2017</v>
+      </c>
+      <c r="G23">
+        <v>2017</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>2016</v>
+      </c>
+      <c r="G24">
+        <v>2016</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>2014</v>
+      </c>
+      <c r="G25">
+        <v>2014</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>2013</v>
+      </c>
+      <c r="G26">
+        <v>2013</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>2013</v>
+      </c>
+      <c r="G27">
+        <v>2013</v>
+      </c>
+      <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>2012</v>
+      </c>
+      <c r="G28">
+        <v>2012</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>2011</v>
+      </c>
+      <c r="G29">
+        <v>2011</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>2011</v>
+      </c>
+      <c r="G30">
+        <v>2011</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31">
+        <v>2020</v>
+      </c>
+      <c r="G31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32">
+        <v>2019</v>
+      </c>
+      <c r="G32">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33">
+        <v>2018</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34">
+        <v>2014</v>
+      </c>
+      <c r="G34">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35">
+        <v>2013</v>
+      </c>
+      <c r="G35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36">
+        <v>2011</v>
+      </c>
+      <c r="G36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37">
+        <v>2011</v>
+      </c>
+      <c r="G37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38">
+        <v>2010</v>
+      </c>
+      <c r="G38">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <v>2019</v>
+      </c>
+      <c r="G39">
+        <v>2019</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41">
+        <v>2016</v>
+      </c>
+      <c r="G41">
+        <v>2016</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42">
+        <v>2016</v>
+      </c>
+      <c r="G42">
+        <v>2016</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460E7602-9203-C848-81CC-4DE39AA6ED67}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAAC4E-403A-8B48-AB1C-998BE2DEC9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3ED89-7E1E-B746-9ED9-38EDA3561987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -385,9 +385,6 @@
     <t>__*BMC Genomics*__. 2017, 18: 578.</t>
   </si>
   <si>
-    <t>__*PLoS Genet*__. 2019, 15: e1008291.</t>
-  </si>
-  <si>
     <t>__*Curr Opin Plant Biol*__. 2016, 30: 19–24.</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>[Widespread imprinting of transposable elements and young genes in the maize endosperm](http://dx.doi.org/10.1101/2020.04.08.032573)</t>
   </si>
   <si>
-    <t>__*bioRxiv*__. 2020. p. 2020.04.08.032573.</t>
-  </si>
-  <si>
     <t>Noshay JM, Marand AP, Anderson SN, **Zhou P**, Guerra MKM, Lu Z, et al</t>
   </si>
   <si>
@@ -614,6 +608,12 @@
   </si>
   <si>
     <t>明尼苏达超级计算中心</t>
+  </si>
+  <si>
+    <t>__*PLoS Genetics*__. 2019, 15: e1008291.</t>
+  </si>
+  <si>
+    <t>__*PLoS Genetics*__. In Press.</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1285,7 +1285,7 @@
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -1323,18 +1323,18 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -1355,12 +1355,12 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1430,22 +1430,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1462,22 +1462,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1494,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1509,7 +1509,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1526,10 +1526,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1541,7 +1541,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1558,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1590,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -1654,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -1686,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1718,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1733,7 +1733,7 @@
         <v>2017</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
         <v>2014</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1814,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1829,7 +1829,7 @@
         <v>2013</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1846,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1861,7 +1861,7 @@
         <v>2013</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1878,10 +1878,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1893,7 +1893,7 @@
         <v>2012</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1925,7 +1925,7 @@
         <v>2011</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -2277,57 +2277,57 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2397,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2458,13 +2458,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2490,13 +2490,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>2016</v>
@@ -2508,7 +2508,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -2522,13 +2522,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6">
         <v>2015</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -2586,13 +2586,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>2011</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -2671,18 +2671,18 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2703,12 +2703,12 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -2778,22 +2778,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2810,22 +2810,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2842,10 +2842,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2874,10 +2874,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2906,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -2938,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
@@ -2970,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -3002,7 +3002,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -3034,10 +3034,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3066,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3081,7 +3081,7 @@
         <v>2017</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3098,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3130,10 +3130,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3145,7 +3145,7 @@
         <v>2014</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3162,10 +3162,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3177,7 +3177,7 @@
         <v>2013</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3194,10 +3194,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3209,7 +3209,7 @@
         <v>2013</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3226,10 +3226,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3241,7 +3241,7 @@
         <v>2012</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3273,7 +3273,7 @@
         <v>2011</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -3328,7 +3328,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31">
         <v>2020</v>
@@ -3351,7 +3351,7 @@
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -3374,7 +3374,7 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3397,7 +3397,7 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34">
         <v>2014</v>
@@ -3420,7 +3420,7 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F35">
         <v>2013</v>
@@ -3443,7 +3443,7 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36">
         <v>2011</v>
@@ -3466,7 +3466,7 @@
         <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F37">
         <v>2011</v>
@@ -3489,7 +3489,7 @@
         <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F38">
         <v>2010</v>
@@ -3512,7 +3512,7 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -3544,7 +3544,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F40">
         <v>2019</v>
@@ -3605,7 +3605,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F42">
         <v>2016</v>
@@ -3625,57 +3625,57 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3ED89-7E1E-B746-9ED9-38EDA3561987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EFE42-BD4D-5C4D-AAED-B564D9CCC974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -988,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,22 +1878,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G28">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1910,28 +1910,28 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1942,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1957,13 +1957,13 @@
         <v>2011</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2339,9 +2339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3226,22 +3226,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G28">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G29">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3290,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3305,13 +3305,13 @@
         <v>2011</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9523EC67-3429-40BA-A3F4-5E3077B2D54D/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EFE42-BD4D-5C4D-AAED-B564D9CCC974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EE8D7-BCFB-914F-8FC4-853D055D1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4560" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="10240" yWindow="5160" windowWidth="28160" windowHeight="16440" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -439,12 +439,6 @@
     <t>Crop Science</t>
   </si>
   <si>
-    <t>Impact Factor = 12.084</t>
-  </si>
-  <si>
-    <t>Impact Factor = 9.618</t>
-  </si>
-  <si>
     <t>[Exploring structural variants in environmentally sensitive gene families](https://doi.org/10.1016/j.pbi.2015.12.012)</t>
   </si>
   <si>
@@ -466,12 +460,6 @@
     <t>**Zhou P**, Enders TA, Myers ZA, Magnusson E, Crisp PA, Noshay J, et al.</t>
   </si>
   <si>
-    <t>[Applying cis-regulatory codes to predict conserved and variable heat and cold stress response in maize](http://dx.doi.org/10.1101/2021.01.15.426829)</t>
-  </si>
-  <si>
-    <t>__*bioRxiv*__. 2021. p. 2021.01.15.426829.</t>
-  </si>
-  <si>
     <t>[Stable unmethylated DNA demarcates expressed genes and their cis-regulatory space in plant genomes](http://dx.doi.org/10.1073/pnas.2010250117)</t>
   </si>
   <si>
@@ -613,7 +601,19 @@
     <t>__*PLoS Genetics*__. 2019, 15: e1008291.</t>
   </si>
   <si>
-    <t>__*PLoS Genetics*__. In Press.</t>
+    <t>[Prediction of conserved and variable heat and cold stress response in maize using cis-regulatory information](https://academic.oup.com/plcell/advance-article/doi/10.1093/plcell/koab267/6420714)</t>
+  </si>
+  <si>
+    <t>__*Plant Cell*__. 2021. doi:10.1093/plcell/koab267</t>
+  </si>
+  <si>
+    <t>Impact Factor = 11.277</t>
+  </si>
+  <si>
+    <t>Impact Factor = 10.812</t>
+  </si>
+  <si>
+    <t>__*PLoS Genetics*__. 2021;17: e1009491.</t>
   </si>
 </sst>
 </file>
@@ -988,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1154,7 @@
         <v>2016</v>
       </c>
       <c r="G5">
-        <v>9999</v>
+        <v>2021</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1285,18 +1285,18 @@
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1323,12 +1323,12 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1355,12 +1355,12 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1462,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1494,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1509,7 +1509,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1526,10 +1526,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1541,7 +1541,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1558,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -1686,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1718,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1733,7 +1733,7 @@
         <v>2017</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
         <v>2014</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1814,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1829,7 +1829,7 @@
         <v>2013</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
@@ -1910,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1925,7 +1925,7 @@
         <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -2339,9 +2339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2397,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2458,13 +2458,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2490,25 +2490,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>2016</v>
       </c>
       <c r="G5">
-        <v>9999</v>
+        <v>2021</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -2522,13 +2522,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F6">
         <v>2015</v>
@@ -2554,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -2586,13 +2586,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8">
         <v>2011</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2633,18 +2633,18 @@
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2671,12 +2671,12 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2703,12 +2703,12 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -2810,10 +2810,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2842,10 +2842,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2874,10 +2874,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2906,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -2970,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -3034,10 +3034,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3066,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3081,7 +3081,7 @@
         <v>2017</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3101,7 +3101,7 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3130,10 +3130,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3145,7 +3145,7 @@
         <v>2014</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3162,10 +3162,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3177,7 +3177,7 @@
         <v>2013</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3226,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
@@ -3258,10 +3258,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3273,7 +3273,7 @@
         <v>2012</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3328,7 +3328,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F31">
         <v>2020</v>
@@ -3351,7 +3351,7 @@
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -3374,7 +3374,7 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3397,7 +3397,7 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F34">
         <v>2014</v>
@@ -3420,7 +3420,7 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>2013</v>
@@ -3443,7 +3443,7 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F36">
         <v>2011</v>
@@ -3466,7 +3466,7 @@
         <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F37">
         <v>2011</v>
@@ -3489,7 +3489,7 @@
         <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F38">
         <v>2010</v>
@@ -3512,7 +3512,7 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -3544,7 +3544,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F40">
         <v>2019</v>
@@ -3605,7 +3605,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F42">
         <v>2016</v>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9523EC67-3429-40BA-A3F4-5E3077B2D54D/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C246AA9A-D9E1-4B0A-9ABE-3B56C05E724D/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EE8D7-BCFB-914F-8FC4-853D055D1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691F774-CBA7-7743-A278-90AB399A1F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="5160" windowWidth="28160" windowHeight="16440" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="13300" yWindow="6540" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="184">
   <si>
     <t>loc</t>
   </si>
@@ -614,6 +614,33 @@
   </si>
   <si>
     <t>__*PLoS Genetics*__. 2021;17: e1009491.</t>
+  </si>
+  <si>
+    <t>[Plant height heterosis is quantitatively associated with expression levels of plastid ribosomal proteins](http://dx.doi.org/10.1073/pnas.2109332118)</t>
+  </si>
+  <si>
+    <t>__*Proc Natl Acad Sci U S A.*__. 2021. doi: 10.1073/pnas.2109332118</t>
+  </si>
+  <si>
+    <t>Birdseye D, de Boer LA, Bai H, **Zhou P**, Shen Z, Schmelz EA, Springer NM, Briggs SP</t>
+  </si>
+  <si>
+    <t>研究员</t>
+  </si>
+  <si>
+    <t>作物生物信息学</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Crop Bioinformatics</t>
+  </si>
+  <si>
+    <t>中国农业科学院作物科学研究所，北京</t>
+  </si>
+  <si>
+    <t>Institute of Crop Sciences, Chinese Academy of Agricultural Sciences (CAAS), Beijing</t>
   </si>
 </sst>
 </file>
@@ -986,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,25 +1169,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="F5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>9999</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -1174,25 +1201,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -1206,22 +1233,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="G7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1232,7 +1259,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1241,19 +1268,19 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G8">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1264,34 +1291,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1302,22 +1329,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1334,28 +1361,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1366,28 +1393,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1425,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1413,7 +1440,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1424,28 +1451,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1462,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1477,7 +1504,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1494,10 +1521,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1509,7 +1536,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1526,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1541,7 +1568,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1558,22 +1585,22 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1590,22 +1617,22 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1622,22 +1649,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1654,22 +1681,22 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1686,22 +1713,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1718,22 +1745,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G23">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1750,22 +1777,22 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1782,22 +1809,22 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G25">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1814,22 +1841,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G26">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1846,22 +1873,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1878,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1893,7 +1920,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1910,22 +1937,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G29">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1942,74 +1969,92 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G30">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="G31">
-        <v>2020</v>
+        <v>2012</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G32">
-        <v>2019</v>
+        <v>2011</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2020,19 +2065,19 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
       </c>
       <c r="F33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2043,19 +2088,19 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F34">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="G34">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2066,19 +2111,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>
       </c>
       <c r="F35">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G35">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2089,19 +2134,19 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F36">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G36">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2112,19 +2157,19 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
       </c>
       <c r="F37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2135,83 +2180,65 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F38">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G38">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2019</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F40">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>2019</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2222,19 +2249,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G41">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
@@ -2253,17 +2280,20 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G42">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -2277,24 +2307,63 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>2016</v>
+      </c>
+      <c r="G43">
+        <v>2016</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44">
+        <v>2016</v>
+      </c>
+      <c r="G44">
+        <v>2016</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2305,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2316,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2327,6 +2396,28 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2337,11 +2428,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,25 +2581,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>9999</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -2522,25 +2613,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2554,19 +2645,19 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F7">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="G7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -2580,7 +2671,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2589,19 +2680,19 @@
         <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>146</v>
       </c>
       <c r="F8">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G8">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -2612,34 +2703,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="F9">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2650,22 +2741,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -2682,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2714,28 +2805,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G12">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2746,10 +2837,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2761,7 +2852,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2772,28 +2863,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2810,10 +2901,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2825,7 +2916,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2842,10 +2933,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2857,7 +2948,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2874,10 +2965,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2889,7 +2980,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2906,22 +2997,22 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -2938,22 +3029,22 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -2970,22 +3061,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -3002,22 +3093,22 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3034,22 +3125,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3066,22 +3157,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G23">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3098,22 +3189,22 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3130,22 +3221,22 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G25">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3162,22 +3253,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G26">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3194,22 +3285,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3226,10 +3317,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3241,7 +3332,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3258,22 +3349,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G29">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3290,74 +3381,92 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G30">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="G31">
-        <v>2020</v>
+        <v>2012</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G32">
-        <v>2019</v>
+        <v>2011</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3368,19 +3477,19 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>161</v>
       </c>
       <c r="F33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3391,19 +3500,19 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F34">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="G34">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3414,19 +3523,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
         <v>161</v>
       </c>
       <c r="F35">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G35">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3437,19 +3546,19 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F36">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G36">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3460,19 +3569,19 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
         <v>161</v>
       </c>
       <c r="F37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,83 +3592,65 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
       </c>
       <c r="F38">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G38">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F39">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2019</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>165</v>
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F40">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>2019</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3570,19 +3661,19 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="F41">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G41">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
@@ -3601,17 +3692,20 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G42">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -3625,24 +3719,63 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>2016</v>
+      </c>
+      <c r="G43">
+        <v>2016</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44">
+        <v>2016</v>
+      </c>
+      <c r="G44">
+        <v>2016</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3653,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3664,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3675,6 +3808,28 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>115</v>
       </c>
     </row>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C246AA9A-D9E1-4B0A-9ABE-3B56C05E724D/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/56E0D7C9-634B-4957-998D-C95EBB99A2B2/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691F774-CBA7-7743-A278-90AB399A1F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69375214-0F4A-EF4B-A251-BD63C19F1CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="6540" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="-32140" yWindow="5160" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="177">
   <si>
     <t>loc</t>
   </si>
@@ -118,12 +118,6 @@
     <t>University of Minnesota, Twin Cities</t>
   </si>
   <si>
-    <t>Thesis: Defense-related gene families in the model legume, _Medicago truncatula_: computational analysis, pan-genome characterization, and structural variation</t>
-  </si>
-  <si>
-    <t>Advisor: Prof. Neivn D. Young</t>
-  </si>
-  <si>
     <t>M.S. Forensic Medicine</t>
   </si>
   <si>
@@ -139,12 +133,6 @@
     <t>B.E. Biological Engineering &amp; Computer Science and Technology</t>
   </si>
   <si>
-    <t>Thesis: Dissection of Common Mitochondrial Haplogroups using Coding Region SNPs</t>
-  </si>
-  <si>
-    <t>Advisor: Prof. Shengbin Li</t>
-  </si>
-  <si>
     <t>Department of Plant and Microbial Biology</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
   </si>
   <si>
     <t>Research Assistant</t>
-  </si>
-  <si>
-    <t>Design and implement a generic database and user interface for storing genotyping, breeding and phenotyping information for soybean breeding programs.</t>
   </si>
   <si>
     <t>PLPA5001: Introductory Plant Pathology</t>
@@ -313,12 +298,6 @@
     <t>61^st^ Annual Maize Genetics Conference</t>
   </si>
   <si>
-    <t>Elucidate hybrid vigor using multi-omics approach; data mining on functional gene regulations; elucidation of transcriptional regulatory differences underlying stress response; integrating multi-omics dataset for transcriptional network construction.</t>
-  </si>
-  <si>
-    <t>_Medicago truncatula_ reference genome assembly, characterization of structural variation in the population, pan-genome construction</t>
-  </si>
-  <si>
     <t>Nathan M. Springer Lab</t>
   </si>
   <si>
@@ -634,13 +613,13 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Crop Bioinformatics</t>
-  </si>
-  <si>
     <t>中国农业科学院作物科学研究所，北京</t>
   </si>
   <si>
-    <t>Institute of Crop Sciences, Chinese Academy of Agricultural Sciences (CAAS), Beijing</t>
+    <t>Institute of Crop Sciences, Chinese Academy of Agricultural Sciences (CAAS)</t>
+  </si>
+  <si>
+    <t>Beijing CN</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1058,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -1088,10 +1067,10 @@
         <v>2015</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -1105,13 +1084,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -1120,10 +1099,10 @@
         <v>2009</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -1137,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -1169,13 +1148,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1201,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1216,10 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -1233,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1248,7 +1224,7 @@
         <v>2016</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1265,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1280,7 +1256,7 @@
         <v>2015</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1297,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1312,7 +1288,7 @@
         <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1323,16 +1299,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1344,27 +1320,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1376,27 +1352,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1408,27 +1384,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1440,7 +1416,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1451,16 +1427,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1472,7 +1448,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1489,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1504,7 +1480,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1521,10 +1497,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1536,7 +1512,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1553,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1568,7 +1544,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1585,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1600,7 +1576,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1617,10 +1593,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1632,7 +1608,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1649,10 +1625,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1664,7 +1640,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1681,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1696,7 +1672,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1713,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1728,7 +1704,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1745,10 +1721,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1760,7 +1736,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1777,10 +1753,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1792,7 +1768,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1809,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1824,7 +1800,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1841,10 +1817,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1856,7 +1832,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1873,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1888,7 +1864,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1905,10 +1881,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1920,7 +1896,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1937,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1952,7 +1928,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1969,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1984,7 +1960,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -2001,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -2016,7 +1992,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2033,10 +2009,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2048,7 +2024,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -2059,19 +2035,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -2082,19 +2058,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -2105,19 +2081,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -2128,19 +2104,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>2014</v>
@@ -2151,19 +2127,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>2013</v>
@@ -2174,19 +2150,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -2197,19 +2173,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2220,19 +2196,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -2252,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
         <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -2284,10 +2260,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
         <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -2313,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
         <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
       </c>
       <c r="F43">
         <v>2016</v>
@@ -2345,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -2368,57 +2344,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2488,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2506,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2517,13 +2493,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2535,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2549,13 +2525,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2581,13 +2557,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2613,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -2631,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2645,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -2677,13 +2653,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -2709,13 +2685,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -2724,7 +2700,7 @@
         <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2735,16 +2711,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2756,27 +2732,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2788,27 +2764,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2820,27 +2796,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2852,7 +2828,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2863,16 +2839,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2884,7 +2860,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2901,10 +2877,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2916,7 +2892,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2933,10 +2909,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2948,7 +2924,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2965,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2980,7 +2956,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2997,10 +2973,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -3012,7 +2988,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3029,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3044,7 +3020,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3061,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3076,7 +3052,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -3093,10 +3069,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3108,7 +3084,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3125,10 +3101,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3140,7 +3116,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3157,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3172,7 +3148,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3189,10 +3165,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3204,7 +3180,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3221,10 +3197,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3236,7 +3212,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3253,10 +3229,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3268,7 +3244,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3285,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3300,7 +3276,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3317,10 +3293,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3332,7 +3308,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3349,10 +3325,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3364,7 +3340,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3381,10 +3357,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3396,7 +3372,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3413,10 +3389,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3428,7 +3404,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3445,10 +3421,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3460,7 +3436,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -3471,19 +3447,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -3494,19 +3470,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -3517,19 +3493,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3540,19 +3516,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F36">
         <v>2014</v>
@@ -3563,19 +3539,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F37">
         <v>2013</v>
@@ -3586,19 +3562,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -3609,19 +3585,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -3632,19 +3608,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -3664,10 +3640,10 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -3696,10 +3672,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -3725,13 +3701,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
         <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
       </c>
       <c r="F43">
         <v>2016</v>
@@ -3757,10 +3733,10 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -3780,57 +3756,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/56E0D7C9-634B-4957-998D-C95EBB99A2B2/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/80B00F5B-9DAA-4D8D-8777-E040CEFF4944/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69375214-0F4A-EF4B-A251-BD63C19F1CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B3094-A812-C540-B420-57CD86ADAD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32140" yWindow="5160" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="177">
   <si>
     <t>loc</t>
   </si>
@@ -298,9 +298,6 @@
     <t>61^st^ Annual Maize Genetics Conference</t>
   </si>
   <si>
-    <t>Nathan M. Springer Lab</t>
-  </si>
-  <si>
     <t>[Meta Gene Regulatory Networks in Maize Highlight Functionally Relevant Regulatory Interactions](https://doi.org/10.1105/tpc.20.00080)</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
     <t>作物生物信息学</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>中国农业科学院作物科学研究所，北京</t>
   </si>
   <si>
@@ -620,6 +614,12 @@
   </si>
   <si>
     <t>Beijing CN</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Nathan Springer Lab</t>
   </si>
 </sst>
 </file>
@@ -996,7 +996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1148,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
         <v>175</v>
       </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1195,7 +1195,10 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>176</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -1299,16 +1302,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1320,27 +1323,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1352,27 +1355,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1384,27 +1387,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1416,7 +1419,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1427,16 +1430,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1448,7 +1451,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1465,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1480,7 +1483,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1497,10 +1500,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1512,7 +1515,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1529,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1544,7 +1547,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1561,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1576,7 +1579,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1593,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1608,7 +1611,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1625,10 +1628,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1640,7 +1643,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1657,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1672,7 +1675,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1689,10 +1692,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1704,7 +1707,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1721,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1736,7 +1739,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1753,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1768,7 +1771,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1785,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1800,7 +1803,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1817,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1832,7 +1835,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1849,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
         <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1864,7 +1867,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1881,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1896,7 +1899,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1913,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1928,7 +1931,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1945,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1960,7 +1963,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1977,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
         <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1992,7 +1995,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2009,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2024,7 +2027,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -2344,57 +2347,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2464,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2482,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2493,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2511,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2525,13 +2528,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>144</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2557,13 +2560,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2589,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -2607,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2621,13 +2624,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -2653,13 +2656,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -2685,13 +2688,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -2711,16 +2714,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2732,27 +2735,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2764,27 +2767,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2796,27 +2799,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2828,7 +2831,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2839,16 +2842,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2860,7 +2863,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2877,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2892,7 +2895,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2909,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2924,7 +2927,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2941,10 +2944,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2956,7 +2959,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2973,10 +2976,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2988,7 +2991,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3005,10 +3008,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3020,7 +3023,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3037,10 +3040,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3052,7 +3055,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -3069,10 +3072,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3084,7 +3087,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3101,10 +3104,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3116,7 +3119,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3133,10 +3136,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3148,7 +3151,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3165,10 +3168,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3180,7 +3183,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3197,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3212,7 +3215,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3229,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3244,7 +3247,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3261,10 +3264,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
         <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3276,7 +3279,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3293,10 +3296,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3308,7 +3311,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3325,10 +3328,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3340,7 +3343,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3357,10 +3360,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3372,7 +3375,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3389,10 +3392,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
         <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3404,7 +3407,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3421,10 +3424,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3436,7 +3439,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -3459,7 +3462,7 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -3482,7 +3485,7 @@
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -3505,7 +3508,7 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3528,7 +3531,7 @@
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36">
         <v>2014</v>
@@ -3551,7 +3554,7 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37">
         <v>2013</v>
@@ -3574,7 +3577,7 @@
         <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -3597,7 +3600,7 @@
         <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -3620,7 +3623,7 @@
         <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -3643,7 +3646,7 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -3675,7 +3678,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -3736,7 +3739,7 @@
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -3756,57 +3759,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>103</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/80B00F5B-9DAA-4D8D-8777-E040CEFF4944/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C4ED6B03-577D-4299-8B49-B5D09C715B3B/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B3094-A812-C540-B420-57CD86ADAD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7777C526-C738-D147-8101-F8BBA19FDDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32140" yWindow="5160" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="174">
   <si>
     <t>loc</t>
   </si>
@@ -131,15 +131,6 @@
   </si>
   <si>
     <t>B.E. Biological Engineering &amp; Computer Science and Technology</t>
-  </si>
-  <si>
-    <t>Department of Plant and Microbial Biology</t>
-  </si>
-  <si>
-    <t>Department of Applied Economics</t>
-  </si>
-  <si>
-    <t>Department of Plant Pathology</t>
   </si>
   <si>
     <t>Post Doctoral Associate</t>
@@ -996,7 +987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1139,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1180,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -1195,7 +1186,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1212,13 +1203,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -1244,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -1276,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -1291,7 +1282,7 @@
         <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1302,16 +1293,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1323,27 +1314,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1355,27 +1346,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1387,27 +1378,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1419,7 +1410,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1430,16 +1421,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1451,7 +1442,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1468,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1483,7 +1474,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1500,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1515,7 +1506,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1532,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1547,7 +1538,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1564,10 +1555,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1579,7 +1570,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1596,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1611,7 +1602,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1628,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1643,7 +1634,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1660,10 +1651,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1675,7 +1666,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1692,10 +1683,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1707,7 +1698,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1724,10 +1715,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1739,7 +1730,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1756,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1771,7 +1762,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1788,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1803,7 +1794,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1820,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1835,7 +1826,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1852,10 +1843,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1867,7 +1858,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1884,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1899,7 +1890,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1916,10 +1907,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1931,7 +1922,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1948,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1963,7 +1954,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1980,10 +1971,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1995,7 +1986,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2012,10 +2003,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2027,7 +2018,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -2038,19 +2029,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -2061,19 +2052,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -2084,19 +2075,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -2107,19 +2098,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>2014</v>
@@ -2130,19 +2121,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>2013</v>
@@ -2153,19 +2144,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -2176,19 +2167,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2199,19 +2190,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -2231,10 +2222,10 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -2263,10 +2254,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -2292,13 +2283,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F43">
         <v>2016</v>
@@ -2324,10 +2315,10 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -2347,57 +2338,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2467,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2485,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2496,13 +2487,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2514,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2528,13 +2519,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2560,13 +2551,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2592,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -2610,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2624,13 +2615,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -2656,13 +2647,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -2688,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -2703,7 +2694,7 @@
         <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2714,16 +2705,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2735,27 +2726,27 @@
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2767,27 +2758,27 @@
         <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2799,27 +2790,27 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2831,7 +2822,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2842,16 +2833,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2863,7 +2854,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2880,10 +2871,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2895,7 +2886,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2912,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2927,7 +2918,7 @@
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2944,10 +2935,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2959,7 +2950,7 @@
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2976,10 +2967,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2991,7 +2982,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3008,10 +2999,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3023,7 +3014,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3040,10 +3031,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3055,7 +3046,7 @@
         <v>2020</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -3072,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3087,7 +3078,7 @@
         <v>2020</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3104,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3119,7 +3110,7 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3136,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3151,7 +3142,7 @@
         <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3168,10 +3159,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3183,7 +3174,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3200,10 +3191,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3215,7 +3206,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3232,10 +3223,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3247,7 +3238,7 @@
         <v>2016</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3264,10 +3255,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3279,7 +3270,7 @@
         <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3296,10 +3287,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3311,7 +3302,7 @@
         <v>2013</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3328,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3343,7 +3334,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3360,10 +3351,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3375,7 +3366,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3392,10 +3383,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3407,7 +3398,7 @@
         <v>2012</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3424,10 +3415,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3439,7 +3430,7 @@
         <v>2011</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -3450,19 +3441,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -3473,19 +3464,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -3496,19 +3487,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3519,19 +3510,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F36">
         <v>2014</v>
@@ -3542,19 +3533,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F37">
         <v>2013</v>
@@ -3565,19 +3556,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -3588,19 +3579,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -3611,19 +3602,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F40">
         <v>2010</v>
@@ -3643,10 +3634,10 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -3675,10 +3666,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -3704,13 +3695,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F43">
         <v>2016</v>
@@ -3736,10 +3727,10 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -3759,57 +3750,57 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C4ED6B03-577D-4299-8B49-B5D09C715B3B/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F5C0D548-D1BE-4AFE-B586-3F9CC3A3F572/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7777C526-C738-D147-8101-F8BBA19FDDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A0E55-8386-A84F-9A18-C8BD2A85025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32140" yWindow="5160" windowWidth="28160" windowHeight="16440" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="17360" yWindow="6260" windowWidth="20560" windowHeight="14700" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,10 @@
     <t>Beijing CN</t>
   </si>
   <si>
-    <t>Principal Investigator</t>
-  </si>
-  <si>
     <t>Nathan Springer Lab</t>
+  </si>
+  <si>
+    <t>Principal Investigator, Professor</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1142,7 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>171</v>
@@ -1186,7 +1186,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F5C0D548-D1BE-4AFE-B586-3F9CC3A3F572/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4B3740BA-8DA5-4A37-9BDF-C6EFE8DE30EF/10.122.14.119/home/pzhou/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A0E55-8386-A84F-9A18-C8BD2A85025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947096AF-5E29-544A-A587-6BB041D87843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="6260" windowWidth="20560" windowHeight="14700" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="17160" yWindow="12220" windowWidth="22540" windowHeight="15180" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="177">
   <si>
     <t>loc</t>
   </si>
@@ -571,9 +571,6 @@
     <t>[Prediction of conserved and variable heat and cold stress response in maize using cis-regulatory information](https://academic.oup.com/plcell/advance-article/doi/10.1093/plcell/koab267/6420714)</t>
   </si>
   <si>
-    <t>__*Plant Cell*__. 2021. doi:10.1093/plcell/koab267</t>
-  </si>
-  <si>
     <t>Impact Factor = 11.277</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>[Plant height heterosis is quantitatively associated with expression levels of plastid ribosomal proteins](http://dx.doi.org/10.1073/pnas.2109332118)</t>
   </si>
   <si>
-    <t>__*Proc Natl Acad Sci U S A.*__. 2021. doi: 10.1073/pnas.2109332118</t>
-  </si>
-  <si>
     <t>Birdseye D, de Boer LA, Bai H, **Zhou P**, Shen Z, Schmelz EA, Springer NM, Briggs SP</t>
   </si>
   <si>
@@ -610,7 +604,22 @@
     <t>Nathan Springer Lab</t>
   </si>
   <si>
-    <t>Principal Investigator, Professor</t>
+    <t>__*Proc Natl Acad Sci U S A.*__. 2021. 118 (47) e2109332118</t>
+  </si>
+  <si>
+    <t>__*Plant Cell*__. 2022, 34: 514-534</t>
+  </si>
+  <si>
+    <t>__*Plant Commun*__. 2024, 5: 100977</t>
+  </si>
+  <si>
+    <t>[A complete assembly of the sorghum BTx623 reference genome](http://dx.doi.org/10.1016/j.xplc.2024.100977)</t>
+  </si>
+  <si>
+    <t>Deng Y^\*^, **Zhou P^\*^**, Li F^\*^, Wang J^\*^, Xie K^\*^, Liang H, Wang C, Liu B, Zhu Z, Zhou W, et al</t>
+  </si>
+  <si>
+    <t>Professor</t>
   </si>
 </sst>
 </file>
@@ -687,9 +696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,7 +736,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -833,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -975,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -983,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,13 +1148,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1186,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1299,28 +1308,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1331,28 +1340,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,28 +1372,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1395,28 +1404,28 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G13">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1459,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1474,7 +1483,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1491,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -1747,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1762,7 +1771,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1779,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1794,7 +1803,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1811,22 +1820,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1843,22 +1852,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G27">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1875,22 +1884,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G28">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1907,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1922,7 +1931,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1939,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1954,7 +1963,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1971,22 +1980,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2003,51 +2012,60 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G32">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="G33">
-        <v>2020</v>
+        <v>2011</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2058,19 +2076,19 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2081,19 +2099,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2104,19 +2122,19 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>48</v>
       </c>
       <c r="F36">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G36">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2127,19 +2145,19 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
       </c>
       <c r="F37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2150,19 +2168,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2173,13 +2191,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2196,51 +2214,42 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
       </c>
       <c r="F40">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G40">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F41">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>2019</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2254,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -2283,19 +2292,19 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G43">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
@@ -2314,11 +2323,14 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -2338,13 +2350,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>2016</v>
+      </c>
+      <c r="G45">
+        <v>2016</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2355,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2366,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2377,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,6 +2418,17 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2398,11 +2439,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2711,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2743,28 +2784,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2775,28 +2816,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2807,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G13">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2871,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2886,7 +2927,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2903,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -3159,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3174,7 +3215,7 @@
         <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3191,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3206,7 +3247,7 @@
         <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3223,22 +3264,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3255,22 +3296,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G27">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3287,22 +3328,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G28">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3319,10 +3360,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3334,7 +3375,7 @@
         <v>2013</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3351,10 +3392,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3366,7 +3407,7 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3383,22 +3424,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3415,51 +3456,60 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G32">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="G33">
-        <v>2020</v>
+        <v>2011</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3470,19 +3520,19 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3493,19 +3543,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3516,19 +3566,19 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>150</v>
       </c>
       <c r="F36">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G36">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3539,19 +3589,19 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>150</v>
       </c>
       <c r="F37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -3562,19 +3612,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -3585,13 +3635,13 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -3608,51 +3658,42 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F40">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G40">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="F41">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>2019</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3666,10 +3707,10 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -3695,19 +3736,19 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F43">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G43">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
@@ -3726,11 +3767,14 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <v>2016</v>
@@ -3750,13 +3794,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45">
+        <v>2016</v>
+      </c>
+      <c r="G45">
+        <v>2016</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3767,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3778,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3789,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3800,6 +3862,17 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>104</v>
       </c>
     </row>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4B3740BA-8DA5-4A37-9BDF-C6EFE8DE30EF/10.122.14.119/home/pzhou/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/26FDEB04-0229-433E-9116-837D2C4A3BD2/10.122.14.119/home/pzhou/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947096AF-5E29-544A-A587-6BB041D87843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CC70E-59BC-8C4A-84EA-2A94D765025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="12220" windowWidth="22540" windowHeight="15180" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="17400" yWindow="9200" windowWidth="22540" windowHeight="15180" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="195">
   <si>
     <t>loc</t>
   </si>
@@ -118,9 +118,6 @@
     <t>University of Minnesota, Twin Cities</t>
   </si>
   <si>
-    <t>M.S. Forensic Medicine</t>
-  </si>
-  <si>
     <t>St. Paul US</t>
   </si>
   <si>
@@ -130,16 +127,10 @@
     <t>Xi’an Jiaotong University</t>
   </si>
   <si>
-    <t>B.E. Biological Engineering &amp; Computer Science and Technology</t>
-  </si>
-  <si>
     <t>Post Doctoral Associate</t>
   </si>
   <si>
     <t>AgroInformatics Analyst</t>
-  </si>
-  <si>
-    <t>Research Assistant</t>
   </si>
   <si>
     <t>PLPA5001: Introductory Plant Pathology</t>
@@ -601,9 +592,6 @@
     <t>Beijing CN</t>
   </si>
   <si>
-    <t>Nathan Springer Lab</t>
-  </si>
-  <si>
     <t>__*Proc Natl Acad Sci U S A.*__. 2021. 118 (47) e2109332118</t>
   </si>
   <si>
@@ -619,7 +607,73 @@
     <t>Deng Y^\*^, **Zhou P^\*^**, Li F^\*^, Wang J^\*^, Xie K^\*^, Liang H, Wang C, Liu B, Zhu Z, Zhou W, et al</t>
   </si>
   <si>
-    <t>Professor</t>
+    <t>__*Biology*__. 2022, 11: 281.</t>
+  </si>
+  <si>
+    <t>[Transcriptome Analysis of Developing Wheat Grains at Rapid Expanding Phase Reveals Dynamic Gene Expression Patterns](http://dx.doi.org/10.3390/biology11020281)</t>
+  </si>
+  <si>
+    <t>Guan J, Wang Z, Liu S, Kong X, Wang F, Sun G, Geng S, Mao L^\*^, **Zhou P^\*^**,  Li A^\*^</t>
+  </si>
+  <si>
+    <t>__*Plant Commun*__. 2024, 5: 100977.</t>
+  </si>
+  <si>
+    <t>__*Plant Cell*__. 2022, 34: 514-534.</t>
+  </si>
+  <si>
+    <t>__*Proc Natl Acad Sci U S A.*__. 2021. 118 (47) e2109332118.</t>
+  </si>
+  <si>
+    <t>__*Nat Commun*__. 2024:15(1):5872.</t>
+  </si>
+  <si>
+    <t>[Intraspecific diploidization of a halophyte root fungus drives heterosis](http://dx.doi.org/10.1038/s41467-024-49468-7)</t>
+  </si>
+  <si>
+    <t>Guan J, Wang Z, Liu S, Kong X, Wang F, Sun G, Geng S, Mao L^\#^, **Zhou P^\#^**,  Li A^\#^</t>
+  </si>
+  <si>
+    <t>Li Z, Zhu Z, Qian K, Tang B, Han B, Zhong Z, Fu T, **Zhou P^\#^**, Stukenbrock EH, Martin FM^\#^, Yuan Z^\#^</t>
+  </si>
+  <si>
+    <t>__*G3*__. 2024:jkae274.</t>
+  </si>
+  <si>
+    <t>[Transcriptome profiling of maize transcription factor mutants to probe gene regulatory network predictions](https://dx.doi.org/10.1093/g3journal/jkae274)</t>
+  </si>
+  <si>
+    <t>Ellison EL, **Zhou P**, Chu Y-H, Hermanson P, Gomez-Cano L, Myers ZA, Abnave A, Gray J, Hirsch CN, Grotewold E, Springer NM</t>
+  </si>
+  <si>
+    <t>__*Genetics*__. 2023:225(3):iyad171.</t>
+  </si>
+  <si>
+    <t>[Mutator transposon insertions within maize genes often provide a novel outward reading promoter](https://dx.doi.org/10.1093/genetics/iyad171)</t>
+  </si>
+  <si>
+    <t>Ellison EL, **Zhou P**, Hermanson P, Chu Y-H, Read A, Hirsch CN, Grotewold E, Springer NM.</t>
+  </si>
+  <si>
+    <t>Advidor: Nevin D. Young</t>
+  </si>
+  <si>
+    <t>Advisor: Nathan M. Springer</t>
+  </si>
+  <si>
+    <t>M.S. Forensic Genetics</t>
+  </si>
+  <si>
+    <t>B.E. Biological Engineering &amp; Computer Science</t>
+  </si>
+  <si>
+    <t>Investigator &amp; Professor</t>
+  </si>
+  <si>
+    <t>**Zhou P**, Enders TA, Myers ZA, Magnusson E, Crisp PA, Noshay J, …, Springer NM</t>
+  </si>
+  <si>
+    <t>**Zhou P**, Silverstein KAT, Ramaraj T, Guhlin J, Denny R, Liu J, …, Young ND</t>
   </si>
 </sst>
 </file>
@@ -992,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3854BA9-2B2F-4849-8499-B1FE2AB1C1F4}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -1067,7 +1121,7 @@
         <v>2015</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1084,13 +1138,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -1116,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -1148,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1183,10 +1237,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -1195,7 +1249,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1215,10 +1269,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -1238,7 +1292,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1247,19 +1301,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G8">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1270,28 +1324,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="G9">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1302,77 +1356,77 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G10">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G11">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
@@ -1381,77 +1435,77 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G13">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="G14">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1468,22 +1522,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1500,22 +1554,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1532,22 +1586,22 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1564,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1579,7 +1633,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1596,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1611,7 +1665,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1628,22 +1682,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1660,22 +1714,22 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1692,22 +1746,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1724,22 +1778,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1756,22 +1810,22 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1788,22 +1842,22 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1820,22 +1874,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1852,22 +1906,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1884,22 +1938,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G28">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1916,22 +1970,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1948,22 +2002,22 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G30">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1980,22 +2034,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G31">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2012,22 +2066,22 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G32">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -2044,308 +2098,308 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G33">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="G34">
-        <v>2020</v>
+        <v>2013</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="G35">
-        <v>2019</v>
+        <v>2012</v>
+      </c>
+      <c r="H35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="G36">
-        <v>2018</v>
+        <v>2011</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="G37">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G38">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G39">
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G40">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F41">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>2019</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G43">
-        <v>2019</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="G44">
-        <v>2016</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2355,17 +2409,20 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F45">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G45">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
@@ -2379,57 +2436,150 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46">
+        <v>2019</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>2016</v>
+      </c>
+      <c r="G47">
+        <v>2016</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>2016</v>
+      </c>
+      <c r="G48">
+        <v>2016</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>99</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2439,11 +2589,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2499,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2517,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2528,13 +2678,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2546,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2560,13 +2710,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2592,13 +2742,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2624,13 +2774,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -2642,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2656,13 +2806,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -2688,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -2720,13 +2870,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -2735,7 +2885,7 @@
         <v>2012</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2746,16 +2896,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2767,7 +2917,7 @@
         <v>2024</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -2778,16 +2928,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2799,27 +2949,27 @@
         <v>2022</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2831,27 +2981,27 @@
         <v>2020</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2863,27 +3013,27 @@
         <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2895,7 +3045,7 @@
         <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -2912,22 +3062,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2944,22 +3094,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2976,22 +3126,22 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -3008,22 +3158,22 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3040,10 +3190,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3055,7 +3205,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3072,22 +3222,22 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -3104,22 +3254,22 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3136,22 +3286,22 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3168,22 +3318,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G23">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3200,22 +3350,22 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3232,22 +3382,22 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G25">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3264,22 +3414,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3296,22 +3446,22 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G27">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3328,22 +3478,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G28">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3360,22 +3510,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3392,22 +3542,22 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3424,22 +3574,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G31">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3465,10 +3615,10 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G32">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="H32" t="s">
         <v>129</v>
@@ -3488,392 +3638,520 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G33">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="G34">
-        <v>2020</v>
+        <v>2013</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="G35">
-        <v>2019</v>
+        <v>2013</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="G36">
-        <v>2018</v>
+        <v>2012</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G37">
-        <v>2014</v>
+        <v>2011</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F38">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G38">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="G39">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
       </c>
       <c r="F40">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G40">
-        <v>2011</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>150</v>
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
       </c>
       <c r="F41">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G41">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F42">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="G42">
-        <v>2019</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" t="s">
-        <v>10</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F43">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G43">
-        <v>2019</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F44">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="G44">
-        <v>2016</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>10</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
       <c r="D45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s">
-        <v>155</v>
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F45">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="G45">
-        <v>2016</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
-        <v>10</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46">
+        <v>2019</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47">
+        <v>2019</v>
+      </c>
+      <c r="G47">
+        <v>2019</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>2016</v>
+      </c>
+      <c r="G48">
+        <v>2016</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49">
+        <v>2016</v>
+      </c>
+      <c r="G49">
+        <v>2016</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cv.xlsx
+++ b/cv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/26FDEB04-0229-433E-9116-837D2C4A3BD2/10.122.14.119/home/pzhou/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/3409C16A-DD89-49BA-ABC4-37FAF2E1FCF0/10.122.14.119/home/pzhou/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CC70E-59BC-8C4A-84EA-2A94D765025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D41BAA-C532-FA4F-BF07-68AA62031079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17400" yWindow="9200" windowWidth="22540" windowHeight="15180" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -376,9 +376,6 @@
     <t>Noshay JM, Marand AP, Anderson SN, **Zhou P**, Guerra MKM, Lu Z, et al</t>
   </si>
   <si>
-    <t>Young ND, Debellé F, Oldroyd GED, … , **Zhou P**, …, et al</t>
-  </si>
-  <si>
     <t>journal_review</t>
   </si>
   <si>
@@ -674,6 +671,9 @@
   </si>
   <si>
     <t>**Zhou P**, Silverstein KAT, Ramaraj T, Guhlin J, Denny R, Liu J, …, Young ND</t>
+  </si>
+  <si>
+    <t>Young ND, Debellé F, Oldroyd GED, …, **Zhou P**, …, et al</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1121,7 @@
         <v>2015</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1141,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1173,7 +1173,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1202,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
         <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" t="s">
-        <v>166</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1249,7 +1249,7 @@
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1324,16 +1324,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1345,7 +1345,7 @@
         <v>2024</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1377,18 +1377,18 @@
         <v>2022</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1415,12 +1415,12 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1447,12 +1447,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1490,10 +1490,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
         <v>182</v>
-      </c>
-      <c r="D14" t="s">
-        <v>183</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>2024</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>2024</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1554,10 +1554,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
         <v>185</v>
-      </c>
-      <c r="D16" t="s">
-        <v>186</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1569,7 +1569,7 @@
         <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1586,10 +1586,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
         <v>172</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1601,7 +1601,7 @@
         <v>2022</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1618,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>93</v>
@@ -1682,10 +1682,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1729,7 +1729,7 @@
         <v>2021</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1778,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1793,7 +1793,7 @@
         <v>2020</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1842,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
@@ -1938,10 +1938,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1953,7 +1953,7 @@
         <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1970,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1985,7 +1985,7 @@
         <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -2005,7 +2005,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2034,10 +2034,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
         <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -2049,7 +2049,7 @@
         <v>2014</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2066,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>2013</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -2130,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>75</v>
@@ -2162,10 +2162,10 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
         <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -2177,7 +2177,7 @@
         <v>2012</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -2209,13 +2209,13 @@
         <v>2011</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2529,57 +2529,57 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2649,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
       </c>
       <c r="F2">
         <v>2009</v>
@@ -2667,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2678,13 +2678,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
       </c>
       <c r="F3">
         <v>2007</v>
@@ -2696,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -2710,13 +2710,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
       </c>
       <c r="F4">
         <v>2003</v>
@@ -2742,13 +2742,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2774,13 +2774,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6">
         <v>2016</v>
@@ -2792,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2806,13 +2806,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7">
         <v>2015</v>
@@ -2838,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>2009</v>
@@ -2870,13 +2870,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>2011</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2917,7 +2917,7 @@
         <v>2024</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -2928,16 +2928,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2949,18 +2949,18 @@
         <v>2022</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -2987,12 +2987,12 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -3019,12 +3019,12 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -3062,10 +3062,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" t="s">
-        <v>183</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -3077,7 +3077,7 @@
         <v>2024</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -3094,10 +3094,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
         <v>178</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -3109,7 +3109,7 @@
         <v>2024</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -3126,10 +3126,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
         <v>185</v>
-      </c>
-      <c r="D17" t="s">
-        <v>186</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -3141,7 +3141,7 @@
         <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -3158,10 +3158,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
         <v>172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -3173,7 +3173,7 @@
         <v>2022</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3190,10 +3190,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3205,7 +3205,7 @@
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3222,7 +3222,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
@@ -3254,10 +3254,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3286,10 +3286,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3301,7 +3301,7 @@
         <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3318,10 +3318,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3333,7 +3333,7 @@
         <v>2021</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3350,10 +3350,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3365,7 +3365,7 @@
         <v>2020</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3414,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
         <v>70</v>
@@ -3510,10 +3510,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3525,7 +3525,7 @@
         <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3542,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3557,7 +3557,7 @@
         <v>2017</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3577,7 +3577,7 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3606,10 +3606,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3621,7 +3621,7 @@
         <v>2014</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -3638,10 +3638,10 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -3653,7 +3653,7 @@
         <v>2013</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -3734,10 +3734,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
         <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -3749,7 +3749,7 @@
         <v>2012</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -3781,7 +3781,7 @@
         <v>2011</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -3804,7 +3804,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38">
         <v>2020</v>
@@ -3827,7 +3827,7 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -3850,7 +3850,7 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F40">
         <v>2018</v>
@@ -3873,7 +3873,7 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41">
         <v>2014</v>
@@ -3896,7 +3896,7 @@
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42">
         <v>2013</v>
@@ -3919,7 +3919,7 @@
         <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43">
         <v>2011</v>
@@ -3942,7 +3942,7 @@
         <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44">
         <v>2011</v>
@@ -3965,7 +3965,7 @@
         <v>61</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45">
         <v>2010</v>
@@ -3988,7 +3988,7 @@
         <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -4020,7 +4020,7 @@
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F47">
         <v>2019</v>
@@ -4081,7 +4081,7 @@
         <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49">
         <v>2016</v>
@@ -4101,57 +4101,57 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
